--- a/biology/Zoologie/Dasypoda_altercator/Dasypoda_altercator.xlsx
+++ b/biology/Zoologie/Dasypoda_altercator/Dasypoda_altercator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasypoda altercator, l'abeille à culottes, est une espèce d'insectes hyménoptères aculéates rattachée classiquemnet à la famille des Melittidae. En 2008, il a été proposé qu'elle soit assignée à la famille des Dasypodaidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasypoda altercator, l'abeille à culottes, est une espèce d'insectes hyménoptères aculéates rattachée classiquemnet à la famille des Melittidae. En 2008, il a été proposé qu'elle soit assignée à la famille des Dasypodaidae. 
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette abeille a été nommée Dasypoda altercator par Harris en 1780 sensu Donald Baker (Oxford, Angleterre).
 Synonymes
-Dasypoda hirtipes (Fabricius, 1793) ou Dasypoda (Dasypoda) hirtipes (Fabricius, 1793) ; Dasypoda hirtipes est considéré par certains auteurs spécialisés comme le nom valide de l'espèce[2] ;
+Dasypoda hirtipes (Fabricius, 1793) ou Dasypoda (Dasypoda) hirtipes (Fabricius, 1793) ; Dasypoda hirtipes est considéré par certains auteurs spécialisés comme le nom valide de l'espèce ;
 Dasypoda plumipes (Panzer, 1797)
 Nom vernaculaire
 abeille à culottes.
-En 2008, de nouvelles études la classent dans la famille des Dasypodaidae[1] (plus d'une centaine d'espèces, Afrique et zone paléarctique, en général dans des endroits secs).
+En 2008, de nouvelles études la classent dans la famille des Dasypodaidae (plus d'une centaine d'espèces, Afrique et zone paléarctique, en général dans des endroits secs).
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce eurasiatique, on la trouve en Europe depuis l'Espagne jusqu'à la Norvège au nord, jusqu'à la mer Noire à l'est et jusqu'à la mer Caspienne en Asie.
 </t>
@@ -579,7 +595,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle porte de longs poils dorés à orangés sur les pattes postérieures.Le mâle porte des poils jaunes, serrés, plus courts ; ceux de son abdomen sont plus clairs. Il porte aussi des poils courts sur la face.
 </t>
@@ -610,7 +628,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes volent de juin à septembre. Ils apprécient les capitules d'astéracées à cœur jaune. Les nids creusés dans le sol sablonneux se signalent par des rejets de particules formant des cônes fragiles semblables à de petits volcans (voir "commons" : category nests). Les femelles les édifient en repoussant le sable à l'aide des brosses de leurs pattes postérieures.
 Ces abeilles sont inoffensives.
